--- a/yuu_codes.xlsx
+++ b/yuu_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">003095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011854</t>
   </si>
   <si>
     <t xml:space="preserve">010714</t>
@@ -160,15 +157,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.48584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.2358490566038"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -178,6 +175,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -216,8 +214,8 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="n">
+        <v>161725</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -226,7 +224,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>160632</v>
+        <v>161028</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -235,7 +233,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>161725</v>
+        <v>501057</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -243,8 +241,8 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>161028</v>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -252,8 +250,8 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>501057</v>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -261,31 +259,13 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
+      <c r="A11" s="2" t="n">
+        <v>270023</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>270023</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/yuu_codes.xlsx
+++ b/yuu_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">162605</t>
+  </si>
+  <si>
     <t xml:space="preserve">持有</t>
   </si>
   <si>
@@ -40,10 +43,19 @@
     <t xml:space="preserve">003095</t>
   </si>
   <si>
-    <t xml:space="preserve">010714</t>
+    <t xml:space="preserve">161725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501057</t>
   </si>
   <si>
     <t xml:space="preserve">000934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270023</t>
   </si>
 </sst>
 </file>
@@ -54,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -76,6 +88,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -93,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -101,6 +120,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -127,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,7 +162,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,116 +187,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.2358490566038"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6084905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>162605</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>161725</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>161028</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>501057</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>270023</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
